--- a/dist/document/dest/2020/10/chi lam.xlsx
+++ b/dist/document/dest/2020/10/chi lam.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="58">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
+    <t>TDV: chi lam</t>
   </si>
   <si>
     <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -639,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -647,7 +647,7 @@
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -725,19 +725,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>2877</v>
+        <v>4814</v>
       </c>
       <c r="D6" s="10">
         <v>8000</v>
       </c>
       <c r="E6" s="10">
-        <v>23016000</v>
+        <v>38512000</v>
       </c>
       <c r="F6" s="10">
         <v>40</v>
       </c>
       <c r="G6" s="10">
-        <v>9206400</v>
+        <v>15404800</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -748,19 +748,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>10256</v>
+        <v>4940</v>
       </c>
       <c r="D7" s="10">
         <v>4000</v>
       </c>
       <c r="E7" s="10">
-        <v>41024000</v>
+        <v>19760000</v>
       </c>
       <c r="F7" s="10">
         <v>45</v>
       </c>
       <c r="G7" s="10">
-        <v>18460800</v>
+        <v>8892000</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -771,19 +771,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>2365</v>
+        <v>3420</v>
       </c>
       <c r="D8" s="10">
         <v>8900</v>
       </c>
       <c r="E8" s="10">
-        <v>21048500</v>
+        <v>30438000</v>
       </c>
       <c r="F8" s="10">
         <v>55</v>
       </c>
       <c r="G8" s="10">
-        <v>11576675</v>
+        <v>16740900</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -794,19 +794,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>21802</v>
+        <v>13151</v>
       </c>
       <c r="D9" s="10">
         <v>13000</v>
       </c>
       <c r="E9" s="10">
-        <v>283426000</v>
+        <v>170963000</v>
       </c>
       <c r="F9" s="10">
         <v>55</v>
       </c>
       <c r="G9" s="10">
-        <v>155884300</v>
+        <v>94029650</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -817,19 +817,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>5577</v>
+        <v>4952</v>
       </c>
       <c r="D10" s="10">
         <v>9000</v>
       </c>
       <c r="E10" s="10">
-        <v>50193000</v>
+        <v>44568000</v>
       </c>
       <c r="F10" s="10">
         <v>55</v>
       </c>
       <c r="G10" s="10">
-        <v>27606150</v>
+        <v>24512400</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -840,19 +840,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="D11" s="10">
         <v>12000</v>
       </c>
       <c r="E11" s="10">
-        <v>2316000</v>
+        <v>3360000</v>
       </c>
       <c r="F11" s="10">
         <v>42</v>
       </c>
       <c r="G11" s="10">
-        <v>972720</v>
+        <v>1411200</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -863,19 +863,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>5794</v>
+        <v>3751</v>
       </c>
       <c r="D12" s="10">
         <v>3000</v>
       </c>
       <c r="E12" s="10">
-        <v>17382000</v>
+        <v>11253000</v>
       </c>
       <c r="F12" s="10">
         <v>55</v>
       </c>
       <c r="G12" s="10">
-        <v>9560100</v>
+        <v>6189150</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -886,19 +886,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>300</v>
+        <v>643</v>
       </c>
       <c r="D13" s="10">
         <v>3700</v>
       </c>
       <c r="E13" s="10">
-        <v>1110000</v>
+        <v>2379100</v>
       </c>
       <c r="F13" s="10">
         <v>55</v>
       </c>
       <c r="G13" s="10">
-        <v>610500</v>
+        <v>1308505</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -909,19 +909,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="10">
-        <v>627</v>
+        <v>458</v>
       </c>
       <c r="D14" s="10">
         <v>24000</v>
       </c>
       <c r="E14" s="10">
-        <v>15048000</v>
+        <v>10992000</v>
       </c>
       <c r="F14" s="10">
         <v>52</v>
       </c>
       <c r="G14" s="10">
-        <v>7824960</v>
+        <v>5715840</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -932,19 +932,19 @@
         <v>20</v>
       </c>
       <c r="C15" s="10">
-        <v>1695</v>
+        <v>1645</v>
       </c>
       <c r="D15" s="10">
         <v>2600</v>
       </c>
       <c r="E15" s="10">
-        <v>4407000</v>
+        <v>4277000</v>
       </c>
       <c r="F15" s="10">
         <v>50</v>
       </c>
       <c r="G15" s="10">
-        <v>2203500</v>
+        <v>2138500</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -955,19 +955,19 @@
         <v>21</v>
       </c>
       <c r="C16" s="10">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="D16" s="10">
         <v>4700</v>
       </c>
       <c r="E16" s="10">
-        <v>13174100</v>
+        <v>13164700</v>
       </c>
       <c r="F16" s="10">
         <v>40</v>
       </c>
       <c r="G16" s="10">
-        <v>5269640</v>
+        <v>5265880</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -978,19 +978,19 @@
         <v>22</v>
       </c>
       <c r="C17" s="10">
-        <v>1172</v>
+        <v>1267</v>
       </c>
       <c r="D17" s="10">
         <v>14700</v>
       </c>
       <c r="E17" s="10">
-        <v>17228400</v>
+        <v>18624900</v>
       </c>
       <c r="F17" s="10">
         <v>54</v>
       </c>
       <c r="G17" s="10">
-        <v>9303336</v>
+        <v>10057446</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1001,19 +1001,19 @@
         <v>23</v>
       </c>
       <c r="C18" s="10">
-        <v>25939</v>
+        <v>22659</v>
       </c>
       <c r="D18" s="10">
         <v>14000</v>
       </c>
       <c r="E18" s="10">
-        <v>363146000</v>
+        <v>317226000</v>
       </c>
       <c r="F18" s="10">
         <v>55</v>
       </c>
       <c r="G18" s="10">
-        <v>199730300</v>
+        <v>174474300</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1024,19 +1024,19 @@
         <v>24</v>
       </c>
       <c r="C19" s="10">
-        <v>560</v>
+        <v>217</v>
       </c>
       <c r="D19" s="10">
         <v>5100</v>
       </c>
       <c r="E19" s="10">
-        <v>2856000</v>
+        <v>1106700</v>
       </c>
       <c r="F19" s="10">
         <v>55</v>
       </c>
       <c r="G19" s="10">
-        <v>1570800</v>
+        <v>608685</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1047,19 +1047,19 @@
         <v>25</v>
       </c>
       <c r="C20" s="10">
-        <v>9536</v>
+        <v>7633</v>
       </c>
       <c r="D20" s="10">
         <v>6000</v>
       </c>
       <c r="E20" s="10">
-        <v>57216000</v>
+        <v>45798000</v>
       </c>
       <c r="F20" s="10">
         <v>54</v>
       </c>
       <c r="G20" s="10">
-        <v>30896640</v>
+        <v>24730920</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1070,19 +1070,19 @@
         <v>26</v>
       </c>
       <c r="C21" s="10">
-        <v>8511</v>
+        <v>1660</v>
       </c>
       <c r="D21" s="10">
         <v>9900</v>
       </c>
       <c r="E21" s="10">
-        <v>84258900</v>
+        <v>16434000</v>
       </c>
       <c r="F21" s="10">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="10">
-        <v>35388738</v>
+        <v>6573600</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1090,22 +1090,22 @@
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="10">
-        <v>6980</v>
+        <v>6357</v>
       </c>
       <c r="D22" s="10">
-        <v>2900</v>
+        <v>9900</v>
       </c>
       <c r="E22" s="10">
-        <v>20242000</v>
+        <v>62934300</v>
       </c>
       <c r="F22" s="10">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G22" s="10">
-        <v>9108900</v>
+        <v>26432406</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1113,22 +1113,22 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10">
-        <v>12614</v>
+        <v>4624</v>
       </c>
       <c r="D23" s="10">
-        <v>7900</v>
+        <v>2900</v>
       </c>
       <c r="E23" s="10">
-        <v>99650600</v>
+        <v>13409600</v>
       </c>
       <c r="F23" s="10">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G23" s="10">
-        <v>52814818</v>
+        <v>6034320</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1136,22 +1136,22 @@
         <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="10">
-        <v>60</v>
+        <v>1349</v>
       </c>
       <c r="D24" s="10">
-        <v>4500</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="10">
-        <v>270000</v>
+        <v>10657100</v>
       </c>
       <c r="F24" s="10">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G24" s="10">
-        <v>118800</v>
+        <v>5648263</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1159,22 +1159,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="10">
-        <v>2220</v>
+        <v>9567</v>
       </c>
       <c r="D25" s="10">
-        <v>3600</v>
+        <v>7900</v>
       </c>
       <c r="E25" s="10">
-        <v>7992000</v>
+        <v>75579300</v>
       </c>
       <c r="F25" s="10">
         <v>55</v>
       </c>
       <c r="G25" s="10">
-        <v>4395600</v>
+        <v>41568615</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1182,22 +1182,22 @@
         <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="10">
-        <v>5233</v>
+        <v>195</v>
       </c>
       <c r="D26" s="10">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="E26" s="10">
-        <v>17268900</v>
+        <v>877500</v>
       </c>
       <c r="F26" s="10">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" s="10">
-        <v>9497895</v>
+        <v>386100</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1205,57 +1205,103 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1950</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="10">
+        <v>7020000</v>
+      </c>
+      <c r="F27" s="10">
+        <v>55</v>
+      </c>
+      <c r="G27" s="10">
+        <v>3861000</v>
+      </c>
+    </row>
+    <row r="28" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4562</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3300</v>
+      </c>
+      <c r="E28" s="10">
+        <v>15054600</v>
+      </c>
+      <c r="F28" s="10">
+        <v>55</v>
+      </c>
+      <c r="G28" s="10">
+        <v>8280030</v>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="10">
-        <v>180</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="C29" s="10">
+        <v>245</v>
+      </c>
+      <c r="D29" s="10">
         <v>6926</v>
       </c>
-      <c r="E27" s="10">
-        <v>1246680</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="E29" s="10">
+        <v>1696870</v>
+      </c>
+      <c r="F29" s="10">
         <v>40</v>
       </c>
-      <c r="G27" s="10">
-        <v>498672</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="G29" s="10">
+        <v>678748</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="11">
-        <v>127294</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11">
-        <v>1143520080</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11">
-        <v>602500244</v>
-      </c>
-    </row>
-    <row r="29" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="11">
+        <v>103140</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
+        <v>936085670</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11">
+        <v>490943258</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.45" bottom="0.45" header="0.2" footer="0.2"/>
@@ -1265,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E82"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
@@ -1333,7 +1379,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
-        <v>2877</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1348,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="10">
-        <v>2877</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1361,7 +1407,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
-        <v>10256</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1376,7 +1422,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="10">
-        <v>5036</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1391,7 +1437,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="10">
-        <v>840</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1406,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="10">
-        <v>360</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1421,7 +1467,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="10">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1436,7 +1482,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="10">
-        <v>3960</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1449,7 +1495,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14">
-        <v>2365</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1464,7 +1510,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="10">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1479,217 +1525,215 @@
         <v>42</v>
       </c>
       <c r="E16" s="10">
-        <v>1390</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="10">
-        <v>30</v>
+      <c r="A17" s="13">
+        <v>4</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14">
+        <v>13151</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18" s="10">
-        <v>300</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>4</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14">
-        <v>21802</v>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="10">
+        <v>11466</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E20" s="10">
-        <v>1765</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E21" s="10">
-        <v>19047</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="10">
-        <v>165</v>
+      <c r="A22" s="13">
+        <v>5</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14">
+        <v>4952</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E23" s="10">
-        <v>825</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>5</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14">
-        <v>5577</v>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="10">
+        <v>821</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E25" s="10">
-        <v>338</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E26" s="10">
-        <v>771</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="10">
-        <v>4266</v>
+      <c r="A27" s="13">
+        <v>6</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14">
+        <v>280</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>6</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14">
-        <v>193</v>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="10">
+        <v>102</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="10">
-        <v>65</v>
+      <c r="A30" s="13">
+        <v>7</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14">
+        <v>3751</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>47</v>
@@ -1698,20 +1742,20 @@
         <v>48</v>
       </c>
       <c r="E31" s="10">
-        <v>128</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14">
-        <v>5794</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1720,69 +1764,69 @@
         <v>1</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E33" s="10">
-        <v>5794</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>8</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14">
-        <v>300</v>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="10">
+        <v>173</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="10">
-        <v>165</v>
+      <c r="A35" s="13">
+        <v>9</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14">
+        <v>458</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E36" s="10">
-        <v>135</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="14">
-        <v>627</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1791,277 +1835,277 @@
         <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E38" s="10">
-        <v>627</v>
+        <v>975</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>10</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14">
-        <v>1695</v>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="10">
+        <v>670</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="10">
-        <v>1335</v>
+      <c r="A40" s="13">
+        <v>11</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14">
+        <v>2801</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9">
         <v>2</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="10">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>11</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14">
-        <v>2803</v>
+      <c r="E42" s="10">
+        <v>329</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="10">
-        <v>2363</v>
+      <c r="A43" s="13">
+        <v>12</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14">
+        <v>1267</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="10">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9">
         <v>2</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="10">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>12</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14">
-        <v>1172</v>
+      <c r="C45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="10">
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E46" s="10">
-        <v>870</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9">
-        <v>2</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="10">
-        <v>94</v>
+      <c r="A47" s="13">
+        <v>13</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14">
+        <v>22659</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E48" s="10">
-        <v>208</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>13</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14">
-        <v>25939</v>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="10">
+        <v>13068</v>
       </c>
     </row>
     <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E50" s="10">
-        <v>0</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9">
-        <v>2</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="10">
-        <v>9381</v>
+      <c r="A51" s="13">
+        <v>14</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14">
+        <v>217</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="10">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>15</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14">
+        <v>7633</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="10">
+        <v>7633</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>16</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9">
+        <v>1</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D56" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="10">
-        <v>15088</v>
-      </c>
-    </row>
-    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9">
-        <v>4</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="10">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>14</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="10">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>15</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14">
-        <v>9536</v>
+      <c r="E56" s="10">
+        <v>6357</v>
       </c>
     </row>
     <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>51</v>
@@ -2070,41 +2114,41 @@
         <v>52</v>
       </c>
       <c r="E57" s="10">
-        <v>9536</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>16</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14">
-        <v>8511</v>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9">
+        <v>3</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="10">
+        <v>510</v>
       </c>
     </row>
     <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
+      <c r="A59" s="13">
+        <v>17</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14">
+        <v>4624</v>
       </c>
     </row>
     <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>41</v>
@@ -2113,50 +2157,50 @@
         <v>42</v>
       </c>
       <c r="E60" s="10">
-        <v>7044</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E61" s="10">
-        <v>882</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E62" s="10">
-        <v>585</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14">
-        <v>6980</v>
+        <v>10916</v>
       </c>
     </row>
     <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2171,7 +2215,7 @@
         <v>42</v>
       </c>
       <c r="E64" s="10">
-        <v>6170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2180,13 +2224,13 @@
         <v>2</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E65" s="10">
-        <v>60</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="66" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2195,154 +2239,154 @@
         <v>3</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E66" s="10">
-        <v>750</v>
+        <v>9417</v>
       </c>
     </row>
     <row r="67" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>18</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14">
-        <v>12614</v>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="10">
+        <v>150</v>
       </c>
     </row>
     <row r="68" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="10">
-        <v>360</v>
+      <c r="A68" s="13">
+        <v>19</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14">
+        <v>195</v>
       </c>
     </row>
     <row r="69" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E69" s="10">
-        <v>1760</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9">
-        <v>3</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="10">
-        <v>10419</v>
+      <c r="A70" s="13">
+        <v>20</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14">
+        <v>1950</v>
       </c>
     </row>
     <row r="71" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E71" s="10">
-        <v>75</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="72" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>19</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14">
-        <v>60</v>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9">
+        <v>2</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="10">
+        <v>120</v>
       </c>
     </row>
     <row r="73" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="10">
-        <v>60</v>
+      <c r="A73" s="13">
+        <v>21</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="14">
+        <v>4562</v>
       </c>
     </row>
     <row r="74" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>20</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14">
-        <v>2220</v>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9">
+        <v>1</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="10">
+        <v>2513</v>
       </c>
     </row>
     <row r="75" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E75" s="10">
-        <v>1500</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="76" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E76" s="10">
         <v>720</v>
@@ -2350,15 +2394,15 @@
     </row>
     <row r="77" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="14">
-        <v>5233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2373,7 +2417,7 @@
         <v>42</v>
       </c>
       <c r="E78" s="10">
-        <v>3538</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2382,93 +2426,35 @@
         <v>2</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E79" s="10">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="80" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9">
-        <v>3</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" s="10">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="81" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>22</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="14">
-        <v>180</v>
-      </c>
-    </row>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="11">
+        <v>103140</v>
+      </c>
+    </row>
+    <row r="81" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9">
-        <v>1</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" s="10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9">
-        <v>2</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E83" s="10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="11">
-        <v>127294</v>
-      </c>
-    </row>
-    <row r="85" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A82" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2477,26 +2463,26 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B73:D73"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A80:D80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
